--- a/Code/Results/Cases/Case_9_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.066013541568736</v>
+        <v>1.017395757306019</v>
       </c>
       <c r="C2">
-        <v>0.1384437618237939</v>
+        <v>0.1249197777447932</v>
       </c>
       <c r="D2">
-        <v>0.1158595578332751</v>
+        <v>0.1177939676214379</v>
       </c>
       <c r="E2">
-        <v>0.07151152966832974</v>
+        <v>0.06917852350421683</v>
       </c>
       <c r="F2">
-        <v>0.7039123822734439</v>
+        <v>0.6633858032561193</v>
       </c>
       <c r="G2">
-        <v>0.438126547059575</v>
+        <v>0.3916581426326289</v>
       </c>
       <c r="H2">
-        <v>0.006454430994165761</v>
+        <v>0.005292062957450383</v>
       </c>
       <c r="I2">
-        <v>0.00808639596237315</v>
+        <v>0.006057804489279839</v>
       </c>
       <c r="J2">
-        <v>0.383237839318511</v>
+        <v>0.3835146966358849</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07558305753023831</v>
+        <v>0.1816816009202498</v>
       </c>
       <c r="M2">
-        <v>0.8451122698585323</v>
+        <v>0.1247617596084076</v>
       </c>
       <c r="N2">
-        <v>0.1929473938558388</v>
+        <v>0.07098459009350933</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.848513073289439</v>
       </c>
       <c r="P2">
-        <v>0.9742620563739948</v>
+        <v>0.2079577005414421</v>
       </c>
       <c r="Q2">
-        <v>1.677477559441911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9433672988147705</v>
+      </c>
+      <c r="S2">
+        <v>1.562554719090528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9317617194828358</v>
+        <v>0.8918094145703321</v>
       </c>
       <c r="C3">
-        <v>0.1342119921580718</v>
+        <v>0.118406248403744</v>
       </c>
       <c r="D3">
-        <v>0.1046977577821551</v>
+        <v>0.1064789341853469</v>
       </c>
       <c r="E3">
-        <v>0.06718869870395316</v>
+        <v>0.06523098287280682</v>
       </c>
       <c r="F3">
-        <v>0.6857416360070374</v>
+        <v>0.6484440624426853</v>
       </c>
       <c r="G3">
-        <v>0.4287886730674586</v>
+        <v>0.3862448542111849</v>
       </c>
       <c r="H3">
-        <v>0.008386571954408006</v>
+        <v>0.006936455200103137</v>
       </c>
       <c r="I3">
-        <v>0.01006699770741859</v>
+        <v>0.007559361840828949</v>
       </c>
       <c r="J3">
-        <v>0.3826245956137058</v>
+        <v>0.3813296923591025</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07274149421497533</v>
+        <v>0.1859327357171239</v>
       </c>
       <c r="M3">
-        <v>0.736581840458598</v>
+        <v>0.1232101972863084</v>
       </c>
       <c r="N3">
-        <v>0.1717735095394843</v>
+        <v>0.06861448634900746</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7398615224048228</v>
       </c>
       <c r="P3">
-        <v>1.001420502373509</v>
+        <v>0.1851296707876173</v>
       </c>
       <c r="Q3">
-        <v>1.656139966099346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9671463563437488</v>
+      </c>
+      <c r="S3">
+        <v>1.548719072893704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8489693390375805</v>
+        <v>0.8141529490723087</v>
       </c>
       <c r="C4">
-        <v>0.1316121481716692</v>
+        <v>0.11445814951513</v>
       </c>
       <c r="D4">
-        <v>0.09787419433473588</v>
+        <v>0.09956648415681002</v>
       </c>
       <c r="E4">
-        <v>0.06451917285968456</v>
+        <v>0.06278837508140001</v>
       </c>
       <c r="F4">
-        <v>0.6750024409561135</v>
+        <v>0.6395886949102376</v>
       </c>
       <c r="G4">
-        <v>0.4233734009595409</v>
+        <v>0.3832448282866849</v>
       </c>
       <c r="H4">
-        <v>0.009751588564612876</v>
+        <v>0.008102354686378155</v>
       </c>
       <c r="I4">
-        <v>0.01148092071524864</v>
+        <v>0.008649624039564596</v>
       </c>
       <c r="J4">
-        <v>0.3824742033688864</v>
+        <v>0.3800582679865911</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07095352573229086</v>
+        <v>0.1886129850070155</v>
       </c>
       <c r="M4">
-        <v>0.669828599271824</v>
+        <v>0.1227971841290607</v>
       </c>
       <c r="N4">
-        <v>0.1588296153388171</v>
+        <v>0.06711327892141838</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.673007565766639</v>
       </c>
       <c r="P4">
-        <v>1.018694449507286</v>
+        <v>0.1712055813818125</v>
       </c>
       <c r="Q4">
-        <v>1.644179511402683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9823719057455129</v>
+      </c>
+      <c r="S4">
+        <v>1.541088430134337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8144196748171453</v>
+        <v>0.7816623303785946</v>
       </c>
       <c r="C5">
-        <v>0.1306503624435393</v>
+        <v>0.1129890450659943</v>
       </c>
       <c r="D5">
-        <v>0.09511778652702674</v>
+        <v>0.09677542357729152</v>
       </c>
       <c r="E5">
-        <v>0.06339812014145707</v>
+        <v>0.06175949653222013</v>
       </c>
       <c r="F5">
-        <v>0.6703373248695073</v>
+        <v>0.6356768960428525</v>
       </c>
       <c r="G5">
-        <v>0.420920672725444</v>
+        <v>0.3817935080538319</v>
       </c>
       <c r="H5">
-        <v>0.01035516525092765</v>
+        <v>0.008618907133636222</v>
       </c>
       <c r="I5">
-        <v>0.01219066572076599</v>
+        <v>0.009232028584094998</v>
       </c>
       <c r="J5">
-        <v>0.3823012688616458</v>
+        <v>0.3793876641576333</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07017104480651959</v>
+        <v>0.1895723362795536</v>
       </c>
       <c r="M5">
-        <v>0.6425991333626939</v>
+        <v>0.1226911334750884</v>
       </c>
       <c r="N5">
-        <v>0.1537111916085223</v>
+        <v>0.0664492486513435</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6457312184963513</v>
       </c>
       <c r="P5">
-        <v>1.025869995192151</v>
+        <v>0.1657002801292364</v>
       </c>
       <c r="Q5">
-        <v>1.638548266097757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9887471173040563</v>
+      </c>
+      <c r="S5">
+        <v>1.537188288977489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8077967189915398</v>
+        <v>0.7753929452410091</v>
       </c>
       <c r="C6">
-        <v>0.130612786627168</v>
+        <v>0.1129039394998443</v>
       </c>
       <c r="D6">
-        <v>0.09468158737300314</v>
+        <v>0.09633382546869029</v>
       </c>
       <c r="E6">
-        <v>0.06317598709649808</v>
+        <v>0.06155329834131251</v>
       </c>
       <c r="F6">
-        <v>0.6690909357115373</v>
+        <v>0.6345664942521765</v>
       </c>
       <c r="G6">
-        <v>0.4201228473096421</v>
+        <v>0.3811819008669346</v>
       </c>
       <c r="H6">
-        <v>0.01046265681006728</v>
+        <v>0.008711101879613797</v>
       </c>
       <c r="I6">
-        <v>0.01242289758327875</v>
+        <v>0.009458559098193042</v>
       </c>
       <c r="J6">
-        <v>0.3820712485107478</v>
+        <v>0.3790698079528667</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06998807878999536</v>
+        <v>0.1895495838774188</v>
       </c>
       <c r="M6">
-        <v>0.6380816759612458</v>
+        <v>0.122591789977827</v>
       </c>
       <c r="N6">
-        <v>0.1530376309935448</v>
+        <v>0.06628869421358985</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6412057788850944</v>
       </c>
       <c r="P6">
-        <v>1.027058208137653</v>
+        <v>0.1649674868786093</v>
       </c>
       <c r="Q6">
-        <v>1.636363347416733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9898370171628681</v>
+      </c>
+      <c r="S6">
+        <v>1.53532979087862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8460914005229654</v>
+        <v>0.8108630138675608</v>
       </c>
       <c r="C7">
-        <v>0.1319346298775024</v>
+        <v>0.1147830927344842</v>
       </c>
       <c r="D7">
-        <v>0.0978946885320795</v>
+        <v>0.09972536839623558</v>
       </c>
       <c r="E7">
-        <v>0.06440653095689797</v>
+        <v>0.06270028171251241</v>
       </c>
       <c r="F7">
-        <v>0.6736353627717833</v>
+        <v>0.6375683794366509</v>
       </c>
       <c r="G7">
-        <v>0.4222617140059342</v>
+        <v>0.3845789600517335</v>
       </c>
       <c r="H7">
-        <v>0.009771618878446318</v>
+        <v>0.008125462869026129</v>
       </c>
       <c r="I7">
-        <v>0.01177837090624667</v>
+        <v>0.008992965995959779</v>
       </c>
       <c r="J7">
-        <v>0.3819140151721427</v>
+        <v>0.3759718883595013</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07080024392621631</v>
+        <v>0.1879616713502266</v>
       </c>
       <c r="M7">
-        <v>0.6694773858212244</v>
+        <v>0.1224435426780133</v>
       </c>
       <c r="N7">
-        <v>0.1592409523505793</v>
+        <v>0.06695306821403868</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6720241256467858</v>
       </c>
       <c r="P7">
-        <v>1.018770309745058</v>
+        <v>0.1716026829038384</v>
       </c>
       <c r="Q7">
-        <v>1.640648161463176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.982582555738821</v>
+      </c>
+      <c r="S7">
+        <v>1.535698211250178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.016575445479987</v>
+        <v>0.9694361590165101</v>
       </c>
       <c r="C8">
-        <v>0.1374397694330227</v>
+        <v>0.1229566984460675</v>
       </c>
       <c r="D8">
-        <v>0.1120812689749187</v>
+        <v>0.114426214013605</v>
       </c>
       <c r="E8">
-        <v>0.06989536181007061</v>
+        <v>0.0677682469555716</v>
       </c>
       <c r="F8">
-        <v>0.6958396439363526</v>
+        <v>0.6541933473752408</v>
       </c>
       <c r="G8">
-        <v>0.4334174981512291</v>
+        <v>0.3963386196965573</v>
       </c>
       <c r="H8">
-        <v>0.00709546594913768</v>
+        <v>0.005851714617447545</v>
       </c>
       <c r="I8">
-        <v>0.009074142261455087</v>
+        <v>0.006955855030966518</v>
       </c>
       <c r="J8">
-        <v>0.3822467891961452</v>
+        <v>0.3706108182376653</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07442458026062582</v>
+        <v>0.182019887789572</v>
       </c>
       <c r="M8">
-        <v>0.8077319152797031</v>
+        <v>0.1233681427133746</v>
       </c>
       <c r="N8">
-        <v>0.1862739767516004</v>
+        <v>0.06994913120279023</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.808976628240714</v>
       </c>
       <c r="P8">
-        <v>0.9835302695302772</v>
+        <v>0.2006529736231712</v>
       </c>
       <c r="Q8">
-        <v>1.665331336524162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9518569732766764</v>
+      </c>
+      <c r="S8">
+        <v>1.546634373343409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.352458423384235</v>
+        <v>1.282106777608078</v>
       </c>
       <c r="C9">
-        <v>0.1476442759465684</v>
+        <v>0.1389535028618312</v>
       </c>
       <c r="D9">
-        <v>0.1400571698452779</v>
+        <v>0.142945451848405</v>
       </c>
       <c r="E9">
-        <v>0.08071859036106588</v>
+        <v>0.07765458581390305</v>
       </c>
       <c r="F9">
-        <v>0.7451692378610275</v>
+        <v>0.6942366838191205</v>
       </c>
       <c r="G9">
-        <v>0.4598720394244324</v>
+        <v>0.4151848802683702</v>
       </c>
       <c r="H9">
-        <v>0.003316613784013933</v>
+        <v>0.002656139739936059</v>
       </c>
       <c r="I9">
-        <v>0.0049694562598388</v>
+        <v>0.003821508948571584</v>
       </c>
       <c r="J9">
-        <v>0.3857353219511168</v>
+        <v>0.3740494026588834</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08144850429954786</v>
+        <v>0.1723433976446955</v>
       </c>
       <c r="M9">
-        <v>1.078063864121503</v>
+        <v>0.1303559832152175</v>
       </c>
       <c r="N9">
-        <v>0.2389337546943295</v>
+        <v>0.07576135143806084</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.078806812637623</v>
       </c>
       <c r="P9">
-        <v>0.9192538901319374</v>
+        <v>0.2576017179108732</v>
       </c>
       <c r="Q9">
-        <v>1.729322674771169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8962637274110961</v>
+      </c>
+      <c r="S9">
+        <v>1.588426152378005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.588070741862964</v>
+        <v>1.497911466192846</v>
       </c>
       <c r="C10">
-        <v>0.1560970615281505</v>
+        <v>0.1515536211433073</v>
       </c>
       <c r="D10">
-        <v>0.1584267599408946</v>
+        <v>0.1625208110261838</v>
       </c>
       <c r="E10">
-        <v>0.08600854427168159</v>
+        <v>0.0824725153740502</v>
       </c>
       <c r="F10">
-        <v>0.7751987331704342</v>
+        <v>0.7137659665832388</v>
       </c>
       <c r="G10">
-        <v>0.4755616780409184</v>
+        <v>0.4403092029552198</v>
       </c>
       <c r="H10">
-        <v>0.00181572147468767</v>
+        <v>0.001453771261657799</v>
       </c>
       <c r="I10">
-        <v>0.003226679493821827</v>
+        <v>0.002650136862768271</v>
       </c>
       <c r="J10">
-        <v>0.3867028995434509</v>
+        <v>0.3559958657695432</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08399238443049484</v>
+        <v>0.1635769500528781</v>
       </c>
       <c r="M10">
-        <v>1.274078174762707</v>
+        <v>0.1358675111562313</v>
       </c>
       <c r="N10">
-        <v>0.2694921919168394</v>
+        <v>0.07759064138182836</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.270428500855104</v>
       </c>
       <c r="P10">
-        <v>0.8760352964625291</v>
+        <v>0.2908696435374196</v>
       </c>
       <c r="Q10">
-        <v>1.765016914567781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8609796825113847</v>
+      </c>
+      <c r="S10">
+        <v>1.597214518159404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.617834714044818</v>
+        <v>1.523277774788085</v>
       </c>
       <c r="C11">
-        <v>0.167661934950047</v>
+        <v>0.1648885658094557</v>
       </c>
       <c r="D11">
-        <v>0.146365183985921</v>
+        <v>0.1519032015075794</v>
       </c>
       <c r="E11">
-        <v>0.06827029255399708</v>
+        <v>0.06552587711305335</v>
       </c>
       <c r="F11">
-        <v>0.7199123183975331</v>
+        <v>0.6546097629947312</v>
       </c>
       <c r="G11">
-        <v>0.438608234093131</v>
+        <v>0.4363842771356303</v>
       </c>
       <c r="H11">
-        <v>0.02038995504204522</v>
+        <v>0.02006709390941097</v>
       </c>
       <c r="I11">
-        <v>0.003377926231340034</v>
+        <v>0.003046435249004276</v>
       </c>
       <c r="J11">
-        <v>0.3649319874507171</v>
+        <v>0.3052439822430557</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06944449603405545</v>
+        <v>0.149128496103172</v>
       </c>
       <c r="M11">
-        <v>1.342234173371111</v>
+        <v>0.1259551104097483</v>
       </c>
       <c r="N11">
-        <v>0.2126419428604294</v>
+        <v>0.06488020421414831</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.329849166193071</v>
       </c>
       <c r="P11">
-        <v>0.8676756276493123</v>
+        <v>0.2309532951256301</v>
       </c>
       <c r="Q11">
-        <v>1.641245947480968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8636388220719766</v>
+      </c>
+      <c r="S11">
+        <v>1.462346901961581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.596114948750113</v>
+        <v>1.503938456292417</v>
       </c>
       <c r="C12">
-        <v>0.1761466843772581</v>
+        <v>0.1737582663069475</v>
       </c>
       <c r="D12">
-        <v>0.1326332616439032</v>
+        <v>0.1385279844320024</v>
       </c>
       <c r="E12">
-        <v>0.05522941155029315</v>
+        <v>0.05306283367272435</v>
       </c>
       <c r="F12">
-        <v>0.6699829211431876</v>
+        <v>0.6063557572907499</v>
       </c>
       <c r="G12">
-        <v>0.4064945827981532</v>
+        <v>0.4197136498210483</v>
       </c>
       <c r="H12">
-        <v>0.05919183722978261</v>
+        <v>0.05886569660584939</v>
       </c>
       <c r="I12">
-        <v>0.003327994173973892</v>
+        <v>0.003018753390401585</v>
       </c>
       <c r="J12">
-        <v>0.3474238431959122</v>
+        <v>0.2813691217993579</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06339509759634943</v>
+        <v>0.1404534579245755</v>
       </c>
       <c r="M12">
-        <v>1.357840426525684</v>
+        <v>0.11753301082436</v>
       </c>
       <c r="N12">
-        <v>0.1637613221761214</v>
+        <v>0.06044508264546877</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.341363597151968</v>
       </c>
       <c r="P12">
-        <v>0.8735233624477488</v>
+        <v>0.1791501954454233</v>
       </c>
       <c r="Q12">
-        <v>1.536556670784933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8765545255884959</v>
+      </c>
+      <c r="S12">
+        <v>1.361681912187819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.529833271685646</v>
+        <v>1.446700345969077</v>
       </c>
       <c r="C13">
-        <v>0.1831810526951898</v>
+        <v>0.1807099759449784</v>
       </c>
       <c r="D13">
-        <v>0.1169856672236449</v>
+        <v>0.1221862612907074</v>
       </c>
       <c r="E13">
-        <v>0.04491299584665498</v>
+        <v>0.04320494650302553</v>
       </c>
       <c r="F13">
-        <v>0.6192268512778369</v>
+        <v>0.5626713801196672</v>
       </c>
       <c r="G13">
-        <v>0.3745007142184491</v>
+        <v>0.3850117600445557</v>
       </c>
       <c r="H13">
-        <v>0.1151994538591481</v>
+        <v>0.1148287000575721</v>
       </c>
       <c r="I13">
-        <v>0.003512005518313543</v>
+        <v>0.003128829232234231</v>
       </c>
       <c r="J13">
-        <v>0.3312562432971475</v>
+        <v>0.2750176785873037</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06318914415213417</v>
+        <v>0.1347276377228983</v>
       </c>
       <c r="M13">
-        <v>1.333774223577279</v>
+        <v>0.1096450125681976</v>
       </c>
       <c r="N13">
-        <v>0.1191685911169955</v>
+        <v>0.06170325110632646</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.318342990806315</v>
       </c>
       <c r="P13">
-        <v>0.889958058073951</v>
+        <v>0.1316832742850309</v>
       </c>
       <c r="Q13">
-        <v>1.434849804229643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8958078976464634</v>
+      </c>
+      <c r="S13">
+        <v>1.278824371084283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.462836982252639</v>
+        <v>1.38886829427372</v>
       </c>
       <c r="C14">
-        <v>0.1876883703271091</v>
+        <v>0.1849771611333324</v>
       </c>
       <c r="D14">
-        <v>0.1053425338896758</v>
+        <v>0.1096731983714534</v>
       </c>
       <c r="E14">
-        <v>0.03934235821777765</v>
+        <v>0.03792412819136359</v>
       </c>
       <c r="F14">
-        <v>0.5834457724610118</v>
+        <v>0.5338077960421614</v>
       </c>
       <c r="G14">
-        <v>0.352177628125574</v>
+        <v>0.3539967954360392</v>
       </c>
       <c r="H14">
-        <v>0.1647829743510982</v>
+        <v>0.1643598751773538</v>
       </c>
       <c r="I14">
-        <v>0.003849583695690662</v>
+        <v>0.003382121425717699</v>
       </c>
       <c r="J14">
-        <v>0.3205245569592847</v>
+        <v>0.2767454068561079</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.06650304815715735</v>
+        <v>0.1317888074171734</v>
       </c>
       <c r="M14">
-        <v>1.299023284750888</v>
+        <v>0.1044166595886473</v>
       </c>
       <c r="N14">
-        <v>0.09110499508173575</v>
+        <v>0.06590047456201553</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.286543148706471</v>
       </c>
       <c r="P14">
-        <v>0.9066167105152374</v>
+        <v>0.1016854836015142</v>
       </c>
       <c r="Q14">
-        <v>1.364998863454915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9120393014255299</v>
+      </c>
+      <c r="S14">
+        <v>1.227578345888361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.436329756291997</v>
+        <v>1.365856246371294</v>
       </c>
       <c r="C15">
-        <v>0.1885642738180309</v>
+        <v>0.1857697644260554</v>
       </c>
       <c r="D15">
-        <v>0.1020883828174561</v>
+        <v>0.1060482437223556</v>
       </c>
       <c r="E15">
-        <v>0.03818653013614348</v>
+        <v>0.03683976249011511</v>
       </c>
       <c r="F15">
-        <v>0.5740744372163533</v>
+        <v>0.5269964631465811</v>
       </c>
       <c r="G15">
-        <v>0.3463748254937968</v>
+        <v>0.343386936989603</v>
       </c>
       <c r="H15">
-        <v>0.1774071138647884</v>
+        <v>0.1769576791003544</v>
       </c>
       <c r="I15">
-        <v>0.004118993950341654</v>
+        <v>0.003629152397772728</v>
       </c>
       <c r="J15">
-        <v>0.3180090719558137</v>
+        <v>0.2797995985351278</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06770218210337475</v>
+        <v>0.1314208835848429</v>
       </c>
       <c r="M15">
-        <v>1.282199824400834</v>
+        <v>0.1031416881692095</v>
       </c>
       <c r="N15">
-        <v>0.08452546651790982</v>
+        <v>0.06728442912747568</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.271381225728874</v>
       </c>
       <c r="P15">
-        <v>0.9125516066101227</v>
+        <v>0.09462986947789886</v>
       </c>
       <c r="Q15">
-        <v>1.347398578900709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9169145240734622</v>
+      </c>
+      <c r="S15">
+        <v>1.21691560179643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.348567932993348</v>
+        <v>1.288931447620456</v>
       </c>
       <c r="C16">
-        <v>0.1834181846563752</v>
+        <v>0.1799864017896624</v>
       </c>
       <c r="D16">
-        <v>0.09777111594424071</v>
+        <v>0.1003707086882955</v>
       </c>
       <c r="E16">
-        <v>0.03820290459925335</v>
+        <v>0.03687805527338028</v>
       </c>
       <c r="F16">
-        <v>0.5710729666653336</v>
+        <v>0.5315047909161379</v>
       </c>
       <c r="G16">
-        <v>0.3455853520208336</v>
+        <v>0.3207433955028947</v>
       </c>
       <c r="H16">
-        <v>0.1653081611616898</v>
+        <v>0.1647159957333457</v>
       </c>
       <c r="I16">
-        <v>0.004947273336755487</v>
+        <v>0.004248882856364489</v>
       </c>
       <c r="J16">
-        <v>0.3204721527453884</v>
+        <v>0.3056615213450087</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.06651433249791339</v>
+        <v>0.135437768874846</v>
       </c>
       <c r="M16">
-        <v>1.203034247982913</v>
+        <v>0.1037328596249978</v>
       </c>
       <c r="N16">
-        <v>0.08186641630429392</v>
+        <v>0.06593263490093726</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.199945234858177</v>
       </c>
       <c r="P16">
-        <v>0.9255163144316469</v>
+        <v>0.09172962552619879</v>
       </c>
       <c r="Q16">
-        <v>1.350712512360346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9218694692927727</v>
+      </c>
+      <c r="S16">
+        <v>1.240644154674598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.316628611324205</v>
+        <v>1.259739099303488</v>
       </c>
       <c r="C17">
-        <v>0.1770595186048922</v>
+        <v>0.1730517513112915</v>
       </c>
       <c r="D17">
-        <v>0.1005466831940893</v>
+        <v>0.1026762037215647</v>
       </c>
       <c r="E17">
-        <v>0.04086941157283341</v>
+        <v>0.03939243693668892</v>
       </c>
       <c r="F17">
-        <v>0.5876025023283304</v>
+        <v>0.5496711748800607</v>
       </c>
       <c r="G17">
-        <v>0.3567411267107303</v>
+        <v>0.3221407257780129</v>
       </c>
       <c r="H17">
-        <v>0.1279068889866579</v>
+        <v>0.1272319416183763</v>
       </c>
       <c r="I17">
-        <v>0.005440002572550284</v>
+        <v>0.004628975698192761</v>
       </c>
       <c r="J17">
-        <v>0.3280509978351773</v>
+        <v>0.3236139217633252</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.06327327851149889</v>
+        <v>0.1403120858684854</v>
       </c>
       <c r="M17">
-        <v>1.160864091222123</v>
+        <v>0.1066909984752478</v>
       </c>
       <c r="N17">
-        <v>0.09399213048880029</v>
+        <v>0.06217233289287627</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.161054141287309</v>
       </c>
       <c r="P17">
-        <v>0.9267700892247532</v>
+        <v>0.1046328772073082</v>
       </c>
       <c r="Q17">
-        <v>1.390131132896201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9184787235125853</v>
+      </c>
+      <c r="S17">
+        <v>1.284552268545383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.330803348592639</v>
+        <v>1.271187762039546</v>
       </c>
       <c r="C18">
-        <v>0.1689390649316707</v>
+        <v>0.1643992710585565</v>
       </c>
       <c r="D18">
-        <v>0.109982084478176</v>
+        <v>0.112065534397999</v>
       </c>
       <c r="E18">
-        <v>0.04762369567283997</v>
+        <v>0.0457781500269725</v>
       </c>
       <c r="F18">
-        <v>0.6244403634997511</v>
+        <v>0.5845078053186228</v>
       </c>
       <c r="G18">
-        <v>0.3806550005207541</v>
+        <v>0.3397674919918217</v>
       </c>
       <c r="H18">
-        <v>0.07515621708677855</v>
+        <v>0.07446136803618941</v>
       </c>
       <c r="I18">
-        <v>0.005324454637630538</v>
+        <v>0.004433371460355495</v>
       </c>
       <c r="J18">
-        <v>0.3414439910926603</v>
+        <v>0.3406266098088153</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.06106708979300057</v>
+        <v>0.1471895153187468</v>
       </c>
       <c r="M18">
-        <v>1.145444753774228</v>
+        <v>0.1124883640116341</v>
       </c>
       <c r="N18">
-        <v>0.1232717475260756</v>
+        <v>0.05900612421086837</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.147025513690579</v>
       </c>
       <c r="P18">
-        <v>0.9194292777018624</v>
+        <v>0.1357669282914529</v>
       </c>
       <c r="Q18">
-        <v>1.468822493572688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9076803980215544</v>
+      </c>
+      <c r="S18">
+        <v>1.357989772332616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.376557777758308</v>
+        <v>1.310522773589639</v>
       </c>
       <c r="C19">
-        <v>0.1617356069767055</v>
+        <v>0.1568697982666407</v>
       </c>
       <c r="D19">
-        <v>0.1247021902244967</v>
+        <v>0.1269935577649051</v>
       </c>
       <c r="E19">
-        <v>0.0593002180512201</v>
+        <v>0.05689229813170904</v>
       </c>
       <c r="F19">
-        <v>0.6743342869359736</v>
+        <v>0.6299925181469135</v>
       </c>
       <c r="G19">
-        <v>0.4123578569112638</v>
+        <v>0.366486268826776</v>
       </c>
       <c r="H19">
-        <v>0.02959582801135952</v>
+        <v>0.02894859391794569</v>
       </c>
       <c r="I19">
-        <v>0.005287694067837911</v>
+        <v>0.004462740062598058</v>
       </c>
       <c r="J19">
-        <v>0.3580444369477007</v>
+        <v>0.3569198373315601</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06454089854929368</v>
+        <v>0.1550317345472241</v>
       </c>
       <c r="M19">
-        <v>1.152505003056376</v>
+        <v>0.1199997447608645</v>
       </c>
       <c r="N19">
-        <v>0.169998532259406</v>
+        <v>0.06109987256693783</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.154487099596537</v>
       </c>
       <c r="P19">
-        <v>0.9091609576638433</v>
+        <v>0.1853073183745195</v>
       </c>
       <c r="Q19">
-        <v>1.570788615195639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.894548498420896</v>
+      </c>
+      <c r="S19">
+        <v>1.448412831435746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.518256402021194</v>
+        <v>1.435407928565638</v>
       </c>
       <c r="C20">
-        <v>0.1550683554386652</v>
+        <v>0.1502061132434704</v>
       </c>
       <c r="D20">
-        <v>0.1536737177484895</v>
+        <v>0.1569385291122245</v>
       </c>
       <c r="E20">
-        <v>0.08421849717191421</v>
+        <v>0.08073809506652907</v>
       </c>
       <c r="F20">
-        <v>0.76282178215979</v>
+        <v>0.7068581643480627</v>
       </c>
       <c r="G20">
-        <v>0.46779910941639</v>
+        <v>0.4213891655814379</v>
       </c>
       <c r="H20">
-        <v>0.002144148113996547</v>
+        <v>0.001703653504707692</v>
       </c>
       <c r="I20">
-        <v>0.004469713274187548</v>
+        <v>0.003900593482969228</v>
       </c>
       <c r="J20">
-        <v>0.3845701967223505</v>
+        <v>0.3704032284265892</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08281187301299298</v>
+        <v>0.1651681578567299</v>
       </c>
       <c r="M20">
-        <v>1.222555851441456</v>
+        <v>0.1335856033272655</v>
       </c>
       <c r="N20">
-        <v>0.2625921660695809</v>
+        <v>0.07669254288390448</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.222439756050733</v>
       </c>
       <c r="P20">
-        <v>0.8875623290942514</v>
+        <v>0.2833618064517367</v>
       </c>
       <c r="Q20">
-        <v>1.74398929521891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8703938478101136</v>
+      </c>
+      <c r="S20">
+        <v>1.591072740545641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.713058145437572</v>
+        <v>1.603430671062938</v>
       </c>
       <c r="C21">
-        <v>0.1602752980710775</v>
+        <v>0.1565848821236386</v>
       </c>
       <c r="D21">
-        <v>0.1715213952441843</v>
+        <v>0.1785757127513818</v>
       </c>
       <c r="E21">
-        <v>0.09227512307665364</v>
+        <v>0.08872671572681412</v>
       </c>
       <c r="F21">
-        <v>0.7997633720516291</v>
+        <v>0.7212073418940008</v>
       </c>
       <c r="G21">
-        <v>0.4889709031090632</v>
+        <v>0.4984508214620433</v>
       </c>
       <c r="H21">
-        <v>0.0009275799218297909</v>
+        <v>0.0007124496164290228</v>
       </c>
       <c r="I21">
-        <v>0.00325507420130311</v>
+        <v>0.003082507890235675</v>
       </c>
       <c r="J21">
-        <v>0.3900076225852729</v>
+        <v>0.308018728239837</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08843110945339916</v>
+        <v>0.1585165631758478</v>
       </c>
       <c r="M21">
-        <v>1.376617368773282</v>
+        <v>0.1380671586553355</v>
       </c>
       <c r="N21">
-        <v>0.2994626904089301</v>
+        <v>0.08108946922144611</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.360494257745529</v>
       </c>
       <c r="P21">
-        <v>0.8543104643569279</v>
+        <v>0.3226857513167545</v>
       </c>
       <c r="Q21">
-        <v>1.800565001152506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8452828313750693</v>
+      </c>
+      <c r="S21">
+        <v>1.586127510616762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.839124569853425</v>
+        <v>1.711263039662356</v>
       </c>
       <c r="C22">
-        <v>0.1635857519917607</v>
+        <v>0.160475038187414</v>
       </c>
       <c r="D22">
-        <v>0.1819320667668762</v>
+        <v>0.1917606085180097</v>
       </c>
       <c r="E22">
-        <v>0.09635975999863433</v>
+        <v>0.09287449130205161</v>
       </c>
       <c r="F22">
-        <v>0.8220464925098199</v>
+        <v>0.7277250746914277</v>
       </c>
       <c r="G22">
-        <v>0.5020166036444351</v>
+        <v>0.5567417639890948</v>
       </c>
       <c r="H22">
-        <v>0.0004686989459425916</v>
+        <v>0.0003528175743026107</v>
       </c>
       <c r="I22">
-        <v>0.002373279385548877</v>
+        <v>0.002336214010529858</v>
       </c>
       <c r="J22">
-        <v>0.3932170223028209</v>
+        <v>0.2729309267123092</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09105724990376274</v>
+        <v>0.1540267885134163</v>
       </c>
       <c r="M22">
-        <v>1.47612836383496</v>
+        <v>0.1409292273122347</v>
       </c>
       <c r="N22">
-        <v>0.3185448568644205</v>
+        <v>0.08302246896811027</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.448241424398731</v>
       </c>
       <c r="P22">
-        <v>0.8334119963725684</v>
+        <v>0.3430902552441353</v>
       </c>
       <c r="Q22">
-        <v>1.83513469961548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8304199766488658</v>
+      </c>
+      <c r="S22">
+        <v>1.577681903744349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.774800828820759</v>
+        <v>1.657950691431694</v>
       </c>
       <c r="C23">
-        <v>0.161371111615999</v>
+        <v>0.1580397299713283</v>
       </c>
       <c r="D23">
-        <v>0.1763019130517449</v>
+        <v>0.1842419362597383</v>
       </c>
       <c r="E23">
-        <v>0.09429426758670445</v>
+        <v>0.09070381702744612</v>
       </c>
       <c r="F23">
-        <v>0.8116196097389263</v>
+        <v>0.7274657509778208</v>
       </c>
       <c r="G23">
-        <v>0.4962660748999497</v>
+        <v>0.5190262670638361</v>
       </c>
       <c r="H23">
-        <v>0.0006903643361055867</v>
+        <v>0.0005236434442601468</v>
       </c>
       <c r="I23">
-        <v>0.002497886224712254</v>
+        <v>0.002328741312911831</v>
       </c>
       <c r="J23">
-        <v>0.3921174715576399</v>
+        <v>0.2968349596871818</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08982204603266197</v>
+        <v>0.1570507158573342</v>
       </c>
       <c r="M23">
-        <v>1.423002992206847</v>
+        <v>0.1401945247198775</v>
       </c>
       <c r="N23">
-        <v>0.3077681987846006</v>
+        <v>0.08217526793988483</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.403179968959932</v>
       </c>
       <c r="P23">
-        <v>0.8443336678320108</v>
+        <v>0.3316445983919891</v>
       </c>
       <c r="Q23">
-        <v>1.820539088997066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8374069717790924</v>
+      </c>
+      <c r="S23">
+        <v>1.590897699840781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.526143058448355</v>
+        <v>1.442644992681977</v>
       </c>
       <c r="C24">
-        <v>0.1537408066755219</v>
+        <v>0.1485077312303602</v>
       </c>
       <c r="D24">
-        <v>0.1551807702100234</v>
+        <v>0.1584476680198463</v>
       </c>
       <c r="E24">
-        <v>0.08628170770077404</v>
+        <v>0.08272200204732982</v>
       </c>
       <c r="F24">
-        <v>0.77080371503272</v>
+        <v>0.7143315673294452</v>
       </c>
       <c r="G24">
-        <v>0.4733580555612491</v>
+        <v>0.4259813013421478</v>
       </c>
       <c r="H24">
-        <v>0.001962617771527952</v>
+        <v>0.001529950846101635</v>
       </c>
       <c r="I24">
-        <v>0.003927864199408049</v>
+        <v>0.003263702488041531</v>
       </c>
       <c r="J24">
-        <v>0.3874698648457979</v>
+        <v>0.3736039457753577</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08482703981036011</v>
+        <v>0.1667988472136557</v>
       </c>
       <c r="M24">
-        <v>1.221901802492056</v>
+        <v>0.1351291156598684</v>
       </c>
       <c r="N24">
-        <v>0.2680654480489153</v>
+        <v>0.07849739228683816</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.221919163698146</v>
       </c>
       <c r="P24">
-        <v>0.8872922126335041</v>
+        <v>0.2891470443707931</v>
       </c>
       <c r="Q24">
-        <v>1.761843524324036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8693387382360349</v>
+      </c>
+      <c r="S24">
+        <v>1.607517350553252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.257433478987167</v>
+        <v>1.194338895429865</v>
       </c>
       <c r="C25">
-        <v>0.1455236257443389</v>
+        <v>0.1355882444119416</v>
       </c>
       <c r="D25">
-        <v>0.1325631073706006</v>
+        <v>0.1351008172375572</v>
       </c>
       <c r="E25">
-        <v>0.07762640073798721</v>
+        <v>0.0747918006641477</v>
       </c>
       <c r="F25">
-        <v>0.7290946309242017</v>
+        <v>0.6818442837579539</v>
       </c>
       <c r="G25">
-        <v>0.45048020262292</v>
+        <v>0.4044938514889509</v>
       </c>
       <c r="H25">
-        <v>0.004182415117939597</v>
+        <v>0.003379528399911846</v>
       </c>
       <c r="I25">
-        <v>0.00637650890664343</v>
+        <v>0.005069060511442736</v>
       </c>
       <c r="J25">
-        <v>0.3835961292801358</v>
+        <v>0.3768954853293991</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07932964714715851</v>
+        <v>0.1744152947101512</v>
       </c>
       <c r="M25">
-        <v>1.005010395650686</v>
+        <v>0.1275795621634082</v>
       </c>
       <c r="N25">
-        <v>0.2255058983945446</v>
+        <v>0.07401340831502878</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.006843274837735</v>
       </c>
       <c r="P25">
-        <v>0.9362372888938832</v>
+        <v>0.2430436570777914</v>
       </c>
       <c r="Q25">
-        <v>1.70477498476842</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9109725262828441</v>
+      </c>
+      <c r="S25">
+        <v>1.573276107012703</v>
       </c>
     </row>
   </sheetData>
